--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126122a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126122a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência da última agressão física que foram vítimas, no período de referência de 365 dias, mas não fizeram registro da última agressão física na delegacia de polícia (%)</t>
   </si>
@@ -43,16 +43,10 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
-  </si>
-  <si>
-    <t>cor ou raça</t>
   </si>
   <si>
     <t>branca</t>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,6 +482,27 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>23.03951225514448</v>
+      </c>
+      <c r="D5">
+        <v>26.55815729205294</v>
+      </c>
+      <c r="E5">
+        <v>22.82863281180327</v>
+      </c>
+      <c r="F5">
+        <v>16.75263877515302</v>
+      </c>
+      <c r="G5">
+        <v>17.46174383694613</v>
+      </c>
+      <c r="H5">
+        <v>15.55603565192184</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -497,22 +512,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23.03951225514448</v>
+        <v>30.29761680176214</v>
       </c>
       <c r="D6">
-        <v>26.55815729205294</v>
+        <v>32.07483848393898</v>
       </c>
       <c r="E6">
-        <v>22.82863281180327</v>
+        <v>34.94129570032817</v>
       </c>
       <c r="F6">
-        <v>16.75263877515302</v>
+        <v>20.55698772818491</v>
       </c>
       <c r="G6">
-        <v>17.46174383694613</v>
+        <v>16.08772004357736</v>
       </c>
       <c r="H6">
-        <v>15.55603565192184</v>
+        <v>13.3312449936715</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -523,78 +538,47 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>30.29761680176214</v>
+        <v>34.51629215441339</v>
       </c>
       <c r="D7">
-        <v>32.07483848393898</v>
+        <v>36.76216855392015</v>
       </c>
       <c r="E7">
-        <v>34.94129570032817</v>
+        <v>29.33509396447619</v>
       </c>
       <c r="F7">
-        <v>20.55698772818491</v>
+        <v>23.36496912297943</v>
       </c>
       <c r="G7">
-        <v>16.08772004357736</v>
+        <v>19.66219760084378</v>
       </c>
       <c r="H7">
-        <v>13.3312449936715</v>
+        <v>14.12536722017432</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>34.51629215441339</v>
-      </c>
-      <c r="D9">
-        <v>36.76216855392015</v>
-      </c>
-      <c r="E9">
-        <v>29.33509396447619</v>
-      </c>
-      <c r="F9">
-        <v>23.36496912297943</v>
-      </c>
-      <c r="G9">
-        <v>19.66219760084378</v>
-      </c>
-      <c r="H9">
-        <v>14.12536722017432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="C8">
         <v>21.57775667885301</v>
       </c>
-      <c r="D10">
+      <c r="D8">
         <v>24.54927799795048</v>
       </c>
-      <c r="E10">
+      <c r="E8">
         <v>25.8705882243509</v>
       </c>
-      <c r="F10">
+      <c r="F8">
         <v>15.54463332928631</v>
       </c>
-      <c r="G10">
+      <c r="G8">
         <v>14.49189660769044</v>
       </c>
-      <c r="H10">
+      <c r="H8">
         <v>14.67657870802034</v>
       </c>
     </row>
